--- a/Bases de datos/cod_actividad.xlsx
+++ b/Bases de datos/cod_actividad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Ensayos_1\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC7AF7-D83B-4F94-928D-F9AF911A7D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95630C-1753-42F9-8136-584316D73816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="619">
   <si>
     <t>Cultivos agrícolas transitorios.</t>
   </si>
@@ -1885,9 +1885,6 @@
   </si>
   <si>
     <t>Institucional, Servicios</t>
-  </si>
-  <si>
-    <t>Comercial, Servicios</t>
   </si>
 </sst>
 </file>
@@ -2287,11 +2284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="C385" sqref="C385"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="2" customWidth="1"/>
@@ -3248,7 +3245,9 @@
       <c r="B102" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -3257,7 +3256,9 @@
       <c r="B103" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -3266,7 +3267,9 @@
       <c r="B104" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -3275,7 +3278,9 @@
       <c r="B105" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -3284,7 +3289,9 @@
       <c r="B106" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -3293,7 +3300,9 @@
       <c r="B107" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -3302,7 +3311,9 @@
       <c r="B108" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -3311,7 +3322,9 @@
       <c r="B109" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
@@ -3320,7 +3333,9 @@
       <c r="B110" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -3329,7 +3344,9 @@
       <c r="B111" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
@@ -3338,7 +3355,9 @@
       <c r="B112" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -3347,7 +3366,9 @@
       <c r="B113" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
@@ -3356,7 +3377,9 @@
       <c r="B114" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -3365,7 +3388,9 @@
       <c r="B115" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
@@ -3374,7 +3399,9 @@
       <c r="B116" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -3383,7 +3410,9 @@
       <c r="B117" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
@@ -3392,7 +3421,9 @@
       <c r="B118" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
@@ -3401,7 +3432,9 @@
       <c r="B119" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
@@ -3410,7 +3443,9 @@
       <c r="B120" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
@@ -3419,7 +3454,9 @@
       <c r="B121" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
@@ -3428,7 +3465,9 @@
       <c r="B122" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -3437,7 +3476,9 @@
       <c r="B123" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -3446,7 +3487,9 @@
       <c r="B124" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -3455,7 +3498,9 @@
       <c r="B125" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
@@ -3464,7 +3509,9 @@
       <c r="B126" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
@@ -3473,7 +3520,9 @@
       <c r="B127" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -3482,7 +3531,9 @@
       <c r="B128" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -3491,7 +3542,9 @@
       <c r="B129" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
@@ -3500,7 +3553,9 @@
       <c r="B130" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
@@ -3509,7 +3564,9 @@
       <c r="B131" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
@@ -3518,7 +3575,9 @@
       <c r="B132" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
@@ -3527,7 +3586,9 @@
       <c r="B133" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
@@ -3536,7 +3597,9 @@
       <c r="B134" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
@@ -3545,7 +3608,9 @@
       <c r="B135" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
@@ -3554,7 +3619,9 @@
       <c r="B136" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
@@ -3563,7 +3630,9 @@
       <c r="B137" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -3572,7 +3641,9 @@
       <c r="B138" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -3581,7 +3652,9 @@
       <c r="B139" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
@@ -3590,7 +3663,9 @@
       <c r="B140" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
@@ -3599,7 +3674,9 @@
       <c r="B141" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -3608,7 +3685,9 @@
       <c r="B142" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -3617,7 +3696,9 @@
       <c r="B143" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
@@ -3626,7 +3707,9 @@
       <c r="B144" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
@@ -3635,7 +3718,9 @@
       <c r="B145" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
@@ -3644,7 +3729,9 @@
       <c r="B146" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -3653,7 +3740,9 @@
       <c r="B147" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
@@ -3662,7 +3751,9 @@
       <c r="B148" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
@@ -3671,7 +3762,9 @@
       <c r="B149" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
@@ -3680,7 +3773,9 @@
       <c r="B150" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
@@ -3689,7 +3784,9 @@
       <c r="B151" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
@@ -3698,7 +3795,9 @@
       <c r="B152" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C152" s="1"/>
+      <c r="C152" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
@@ -3707,7 +3806,9 @@
       <c r="B153" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C153" s="1"/>
+      <c r="C153" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
@@ -3716,7 +3817,9 @@
       <c r="B154" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C154" s="1"/>
+      <c r="C154" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
@@ -3725,7 +3828,9 @@
       <c r="B155" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
@@ -3734,7 +3839,9 @@
       <c r="B156" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
@@ -3743,7 +3850,9 @@
       <c r="B157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C157" s="1"/>
+      <c r="C157" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
@@ -3752,7 +3861,9 @@
       <c r="B158" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C158" s="1"/>
+      <c r="C158" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
@@ -3761,7 +3872,9 @@
       <c r="B159" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
@@ -3770,7 +3883,9 @@
       <c r="B160" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="161" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
@@ -3779,7 +3894,9 @@
       <c r="B161" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
@@ -3788,7 +3905,9 @@
       <c r="B162" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="163" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
@@ -3797,7 +3916,9 @@
       <c r="B163" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
@@ -3806,16 +3927,20 @@
       <c r="B164" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2014</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
@@ -3824,7 +3949,9 @@
       <c r="B166" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="1"/>
+      <c r="C166" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
@@ -3833,7 +3960,9 @@
       <c r="B167" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
@@ -3842,7 +3971,9 @@
       <c r="B168" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
@@ -3851,7 +3982,9 @@
       <c r="B169" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C169" s="1"/>
+      <c r="C169" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
@@ -3860,7 +3993,9 @@
       <c r="B170" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C170" s="1"/>
+      <c r="C170" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
@@ -3869,7 +4004,9 @@
       <c r="B171" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="1"/>
+      <c r="C171" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
@@ -3878,7 +4015,9 @@
       <c r="B172" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -3887,7 +4026,9 @@
       <c r="B173" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
@@ -3896,7 +4037,9 @@
       <c r="B174" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
@@ -3905,7 +4048,9 @@
       <c r="B175" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
@@ -3914,7 +4059,9 @@
       <c r="B176" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C176" s="1"/>
+      <c r="C176" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
@@ -3923,7 +4070,9 @@
       <c r="B177" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
@@ -3932,7 +4081,9 @@
       <c r="B178" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C178" s="1"/>
+      <c r="C178" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
@@ -3941,7 +4092,9 @@
       <c r="B179" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
@@ -3950,7 +4103,9 @@
       <c r="B180" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
@@ -3959,7 +4114,9 @@
       <c r="B181" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
@@ -3968,7 +4125,9 @@
       <c r="B182" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
@@ -3977,7 +4136,9 @@
       <c r="B183" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
@@ -3986,7 +4147,9 @@
       <c r="B184" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
@@ -3995,7 +4158,9 @@
       <c r="B185" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
@@ -4004,7 +4169,9 @@
       <c r="B186" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
@@ -4013,7 +4180,9 @@
       <c r="B187" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
@@ -4022,7 +4191,9 @@
       <c r="B188" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="1"/>
+      <c r="C188" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
@@ -4031,7 +4202,9 @@
       <c r="B189" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C189" s="1"/>
+      <c r="C189" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
@@ -4040,7 +4213,9 @@
       <c r="B190" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
@@ -4049,7 +4224,9 @@
       <c r="B191" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
@@ -4058,7 +4235,9 @@
       <c r="B192" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
@@ -4067,7 +4246,9 @@
       <c r="B193" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="194" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
@@ -4076,7 +4257,9 @@
       <c r="B194" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
@@ -4085,7 +4268,9 @@
       <c r="B195" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C195" s="1"/>
+      <c r="C195" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
@@ -4094,7 +4279,9 @@
       <c r="B196" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
@@ -4103,7 +4290,9 @@
       <c r="B197" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
@@ -4112,7 +4301,9 @@
       <c r="B198" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
@@ -4121,7 +4312,9 @@
       <c r="B199" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="200" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
@@ -4130,7 +4323,9 @@
       <c r="B200" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="201" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
@@ -4139,7 +4334,9 @@
       <c r="B201" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
@@ -4148,7 +4345,9 @@
       <c r="B202" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="203" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
@@ -4157,7 +4356,9 @@
       <c r="B203" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
@@ -4166,7 +4367,9 @@
       <c r="B204" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
@@ -4175,7 +4378,9 @@
       <c r="B205" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
@@ -4184,7 +4389,9 @@
       <c r="B206" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="207" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
@@ -4193,7 +4400,9 @@
       <c r="B207" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="208" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
@@ -4202,7 +4411,9 @@
       <c r="B208" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="209" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
@@ -4211,7 +4422,9 @@
       <c r="B209" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="210" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
@@ -4220,7 +4433,9 @@
       <c r="B210" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="211" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
@@ -4229,7 +4444,9 @@
       <c r="B211" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="212" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -4238,7 +4455,9 @@
       <c r="B212" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C212" s="1"/>
+      <c r="C212" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="213" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -4247,7 +4466,9 @@
       <c r="B213" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C213" s="1"/>
+      <c r="C213" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -4256,7 +4477,9 @@
       <c r="B214" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -4265,7 +4488,9 @@
       <c r="B215" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C215" s="1"/>
+      <c r="C215" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -4274,7 +4499,9 @@
       <c r="B216" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C216" s="1"/>
+      <c r="C216" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -4283,7 +4510,9 @@
       <c r="B217" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C217" s="1"/>
+      <c r="C217" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -4292,7 +4521,9 @@
       <c r="B218" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C218" s="1"/>
+      <c r="C218" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -4301,7 +4532,9 @@
       <c r="B219" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
@@ -4310,7 +4543,9 @@
       <c r="B220" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
@@ -4319,7 +4554,9 @@
       <c r="B221" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C221" s="1"/>
+      <c r="C221" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="222" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
@@ -4328,7 +4565,9 @@
       <c r="B222" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C222" s="1"/>
+      <c r="C222" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="223" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
@@ -4337,7 +4576,9 @@
       <c r="B223" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C223" s="1"/>
+      <c r="C223" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="224" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
@@ -4346,7 +4587,9 @@
       <c r="B224" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C224" s="1"/>
+      <c r="C224" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
@@ -4355,7 +4598,9 @@
       <c r="B225" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C225" s="1"/>
+      <c r="C225" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="226" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
@@ -4364,7 +4609,9 @@
       <c r="B226" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C226" s="1"/>
+      <c r="C226" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="227" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
@@ -4373,7 +4620,9 @@
       <c r="B227" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C227" s="1"/>
+      <c r="C227" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="228" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
@@ -4382,7 +4631,9 @@
       <c r="B228" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C228" s="1"/>
+      <c r="C228" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="229" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
@@ -4391,7 +4642,9 @@
       <c r="B229" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C229" s="1"/>
+      <c r="C229" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
@@ -4400,7 +4653,9 @@
       <c r="B230" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C230" s="1"/>
+      <c r="C230" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="231" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
@@ -4409,7 +4664,9 @@
       <c r="B231" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C231" s="1"/>
+      <c r="C231" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="232" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
@@ -4418,7 +4675,9 @@
       <c r="B232" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C232" s="1"/>
+      <c r="C232" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="233" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
@@ -4427,7 +4686,9 @@
       <c r="B233" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="234" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
@@ -4436,7 +4697,9 @@
       <c r="B234" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
@@ -4445,7 +4708,9 @@
       <c r="B235" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C235" s="1"/>
+      <c r="C235" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
@@ -4454,7 +4719,9 @@
       <c r="B236" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C236" s="1"/>
+      <c r="C236" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
@@ -4463,7 +4730,9 @@
       <c r="B237" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C237" s="1"/>
+      <c r="C237" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
@@ -4472,7 +4741,9 @@
       <c r="B238" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C238" s="1"/>
+      <c r="C238" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
@@ -4481,25 +4752,31 @@
       <c r="B239" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>279</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2790</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C241" s="1"/>
+      <c r="C241" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
@@ -4508,7 +4785,9 @@
       <c r="B242" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C242" s="1"/>
+      <c r="C242" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="243" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
@@ -4517,7 +4796,9 @@
       <c r="B243" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C243" s="1"/>
+      <c r="C243" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
@@ -4526,7 +4807,9 @@
       <c r="B244" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C244" s="1"/>
+      <c r="C244" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
@@ -4535,7 +4818,9 @@
       <c r="B245" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C245" s="1"/>
+      <c r="C245" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
@@ -4544,7 +4829,9 @@
       <c r="B246" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C246" s="1"/>
+      <c r="C246" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="247" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
@@ -4553,7 +4840,9 @@
       <c r="B247" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C247" s="1"/>
+      <c r="C247" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
@@ -4562,7 +4851,9 @@
       <c r="B248" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C248" s="1"/>
+      <c r="C248" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="249" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
@@ -4571,7 +4862,9 @@
       <c r="B249" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
@@ -4580,7 +4873,9 @@
       <c r="B250" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C250" s="1"/>
+      <c r="C250" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="251" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
@@ -4589,16 +4884,20 @@
       <c r="B251" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C251" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>282</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C252" s="1"/>
+      <c r="C252" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
@@ -4607,7 +4906,9 @@
       <c r="B253" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
@@ -4616,7 +4917,9 @@
       <c r="B254" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C254" s="1"/>
+      <c r="C254" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
@@ -4625,7 +4928,9 @@
       <c r="B255" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C255" s="1"/>
+      <c r="C255" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="256" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
@@ -4634,7 +4939,9 @@
       <c r="B256" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C256" s="1"/>
+      <c r="C256" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="257" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
@@ -4643,7 +4950,9 @@
       <c r="B257" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C257" s="1"/>
+      <c r="C257" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="258" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
@@ -4652,7 +4961,9 @@
       <c r="B258" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C258" s="1"/>
+      <c r="C258" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
@@ -4661,7 +4972,9 @@
       <c r="B259" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="260" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
@@ -4670,7 +4983,9 @@
       <c r="B260" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="261" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
@@ -4679,7 +4994,9 @@
       <c r="B261" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="262" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
@@ -4688,7 +5005,9 @@
       <c r="B262" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C262" s="1"/>
+      <c r="C262" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="263" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
@@ -4697,7 +5016,9 @@
       <c r="B263" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C263" s="1"/>
+      <c r="C263" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="264" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
@@ -4706,7 +5027,9 @@
       <c r="B264" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="265" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
@@ -4715,7 +5038,9 @@
       <c r="B265" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C265" s="1"/>
+      <c r="C265" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
@@ -5450,7 +5775,9 @@
       <c r="B346" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C346" s="1"/>
+      <c r="C346" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
@@ -5459,7 +5786,9 @@
       <c r="B347" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C347" s="1"/>
+      <c r="C347" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="348" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
@@ -5468,7 +5797,9 @@
       <c r="B348" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C348" s="1"/>
+      <c r="C348" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="349" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
@@ -5477,7 +5808,9 @@
       <c r="B349" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C349" s="1"/>
+      <c r="C349" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="350" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
@@ -5486,7 +5819,9 @@
       <c r="B350" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C350" s="1"/>
+      <c r="C350" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="351" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
@@ -5495,7 +5830,9 @@
       <c r="B351" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C351" s="1"/>
+      <c r="C351" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="352" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
@@ -5504,7 +5841,9 @@
       <c r="B352" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C352" s="1"/>
+      <c r="C352" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="353" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
@@ -5513,7 +5852,9 @@
       <c r="B353" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C353" s="1"/>
+      <c r="C353" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="354" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
@@ -5522,7 +5863,9 @@
       <c r="B354" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C354" s="1"/>
+      <c r="C354" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
@@ -5531,7 +5874,9 @@
       <c r="B355" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C355" s="1"/>
+      <c r="C355" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
@@ -5540,7 +5885,9 @@
       <c r="B356" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C356" s="1"/>
+      <c r="C356" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="357" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
@@ -5549,7 +5896,9 @@
       <c r="B357" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C357" s="1"/>
+      <c r="C357" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="358" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
@@ -5558,7 +5907,9 @@
       <c r="B358" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C358" s="1"/>
+      <c r="C358" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="359" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
@@ -5567,7 +5918,9 @@
       <c r="B359" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C359" s="1"/>
+      <c r="C359" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="360" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
@@ -5576,7 +5929,9 @@
       <c r="B360" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C360" s="1"/>
+      <c r="C360" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
@@ -5585,7 +5940,9 @@
       <c r="B361" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C361" s="1"/>
+      <c r="C361" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
@@ -5594,7 +5951,9 @@
       <c r="B362" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C362" s="1"/>
+      <c r="C362" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="363" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
@@ -5603,7 +5962,9 @@
       <c r="B363" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="364" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
@@ -5612,7 +5973,9 @@
       <c r="B364" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C364" s="1"/>
+      <c r="C364" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
@@ -5621,7 +5984,9 @@
       <c r="B365" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C365" s="1"/>
+      <c r="C365" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
@@ -5630,7 +5995,9 @@
       <c r="B366" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C366" s="1"/>
+      <c r="C366" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="367" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
@@ -5639,16 +6006,20 @@
       <c r="B367" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C367" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>4645</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C368" s="1"/>
+      <c r="C368" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="369" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
@@ -5657,7 +6028,9 @@
       <c r="B369" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C369" s="1"/>
+      <c r="C369" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
@@ -5666,7 +6039,9 @@
       <c r="B370" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C370" s="1"/>
+      <c r="C370" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="371" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
@@ -5675,7 +6050,9 @@
       <c r="B371" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C371" s="1"/>
+      <c r="C371" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="372" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
@@ -5684,7 +6061,9 @@
       <c r="B372" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C372" s="1"/>
+      <c r="C372" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="373" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
@@ -5693,7 +6072,9 @@
       <c r="B373" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C373" s="1"/>
+      <c r="C373" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="374" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
@@ -5702,7 +6083,9 @@
       <c r="B374" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C374" s="1"/>
+      <c r="C374" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="375" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
@@ -5711,7 +6094,9 @@
       <c r="B375" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C375" s="1"/>
+      <c r="C375" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="376" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
@@ -5720,7 +6105,9 @@
       <c r="B376" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C376" s="1"/>
+      <c r="C376" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="377" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
@@ -5729,7 +6116,9 @@
       <c r="B377" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C377" s="1"/>
+      <c r="C377" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="378" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
@@ -5738,7 +6127,9 @@
       <c r="B378" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C378" s="1"/>
+      <c r="C378" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="379" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
@@ -5747,7 +6138,9 @@
       <c r="B379" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C379" s="1"/>
+      <c r="C379" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="380" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
@@ -5756,7 +6149,9 @@
       <c r="B380" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C380" s="1"/>
+      <c r="C380" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
@@ -5765,7 +6160,9 @@
       <c r="B381" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C381" s="1"/>
+      <c r="C381" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
@@ -5774,7 +6171,9 @@
       <c r="B382" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C382" s="1"/>
+      <c r="C382" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
@@ -5783,7 +6182,9 @@
       <c r="B383" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C383" s="1"/>
+      <c r="C383" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="384" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
@@ -5792,7 +6193,9 @@
       <c r="B384" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C384" s="1"/>
+      <c r="C384" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="385" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
@@ -5802,7 +6205,7 @@
         <v>312</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -5823,7 +6226,9 @@
       <c r="B387" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C387" s="1"/>
+      <c r="C387" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="388" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
@@ -5832,7 +6237,9 @@
       <c r="B388" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C388" s="1"/>
+      <c r="C388" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="389" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
@@ -5841,7 +6248,9 @@
       <c r="B389" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C389" s="1"/>
+      <c r="C389" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="390" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
@@ -5850,7 +6259,9 @@
       <c r="B390" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C390" s="1"/>
+      <c r="C390" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="391" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
@@ -5859,7 +6270,9 @@
       <c r="B391" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C391" s="1"/>
+      <c r="C391" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="392" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
@@ -5868,7 +6281,9 @@
       <c r="B392" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C392" s="1"/>
+      <c r="C392" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="393" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
@@ -5877,7 +6292,9 @@
       <c r="B393" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C393" s="1"/>
+      <c r="C393" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
@@ -5886,7 +6303,9 @@
       <c r="B394" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C394" s="1"/>
+      <c r="C394" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="395" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
@@ -5895,7 +6314,9 @@
       <c r="B395" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C395" s="1"/>
+      <c r="C395" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="396" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
@@ -5904,7 +6325,9 @@
       <c r="B396" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C396" s="1"/>
+      <c r="C396" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="397" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
@@ -5913,7 +6336,9 @@
       <c r="B397" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C397" s="1"/>
+      <c r="C397" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="398" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
@@ -5922,7 +6347,9 @@
       <c r="B398" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C398" s="1"/>
+      <c r="C398" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="399" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
@@ -5931,7 +6358,9 @@
       <c r="B399" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C399" s="1"/>
+      <c r="C399" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="400" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
@@ -5940,7 +6369,9 @@
       <c r="B400" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C400" s="1"/>
+      <c r="C400" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
@@ -5949,7 +6380,9 @@
       <c r="B401" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C401" s="1"/>
+      <c r="C401" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
@@ -5958,7 +6391,9 @@
       <c r="B402" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C402" s="1"/>
+      <c r="C402" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="403" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
@@ -5967,7 +6402,9 @@
       <c r="B403" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C403" s="1"/>
+      <c r="C403" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="404" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
@@ -5976,7 +6413,9 @@
       <c r="B404" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C404" s="1"/>
+      <c r="C404" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="405" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
@@ -5985,7 +6424,9 @@
       <c r="B405" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C405" s="1"/>
+      <c r="C405" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="406" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
@@ -5994,7 +6435,9 @@
       <c r="B406" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C406" s="1"/>
+      <c r="C406" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="407" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
@@ -6003,7 +6446,9 @@
       <c r="B407" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C407" s="1"/>
+      <c r="C407" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="408" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
@@ -6012,7 +6457,9 @@
       <c r="B408" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C408" s="1"/>
+      <c r="C408" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="409" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
@@ -6021,7 +6468,9 @@
       <c r="B409" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C409" s="1"/>
+      <c r="C409" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
@@ -6030,7 +6479,9 @@
       <c r="B410" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C410" s="1"/>
+      <c r="C410" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="411" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
@@ -6039,7 +6490,9 @@
       <c r="B411" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C411" s="1"/>
+      <c r="C411" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="412" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
@@ -6048,7 +6501,9 @@
       <c r="B412" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C412" s="1"/>
+      <c r="C412" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
@@ -6057,7 +6512,9 @@
       <c r="B413" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C413" s="1"/>
+      <c r="C413" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="414" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
@@ -6066,7 +6523,9 @@
       <c r="B414" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C414" s="1"/>
+      <c r="C414" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="415" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
@@ -6075,7 +6534,9 @@
       <c r="B415" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C415" s="1"/>
+      <c r="C415" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="416" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
@@ -6084,7 +6545,9 @@
       <c r="B416" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C416" s="1"/>
+      <c r="C416" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="417" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
@@ -6093,7 +6556,9 @@
       <c r="B417" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C417" s="1"/>
+      <c r="C417" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="418" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
@@ -6102,7 +6567,9 @@
       <c r="B418" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C418" s="1"/>
+      <c r="C418" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="419" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
@@ -6111,7 +6578,9 @@
       <c r="B419" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C419" s="1"/>
+      <c r="C419" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="420" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
@@ -6120,7 +6589,9 @@
       <c r="B420" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C420" s="1"/>
+      <c r="C420" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="421" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
@@ -6129,7 +6600,9 @@
       <c r="B421" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C421" s="1"/>
+      <c r="C421" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="422" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
@@ -6138,7 +6611,9 @@
       <c r="B422" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C422" s="1"/>
+      <c r="C422" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
@@ -6878,7 +7353,7 @@
       </c>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>6202</v>
       </c>
@@ -7202,7 +7677,7 @@
       </c>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>661</v>
       </c>

--- a/Bases de datos/cod_actividad.xlsx
+++ b/Bases de datos/cod_actividad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Ensayos_1\Mejoras\Bases de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95630C-1753-42F9-8136-584316D73816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E25538-8013-4DE8-ACBD-6395185A91F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="619">
   <si>
     <t>Cultivos agrícolas transitorios.</t>
   </si>
@@ -2284,11 +2284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="2" customWidth="1"/>
@@ -2789,7 +2789,9 @@
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -2798,7 +2800,9 @@
       <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
@@ -2807,7 +2811,9 @@
       <c r="B54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
@@ -2816,7 +2822,9 @@
       <c r="B55" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -2825,7 +2833,9 @@
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -2834,7 +2844,9 @@
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -2843,7 +2855,9 @@
       <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -2852,7 +2866,9 @@
       <c r="B59" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -2861,7 +2877,9 @@
       <c r="B60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
@@ -2870,7 +2888,9 @@
       <c r="B61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -2879,7 +2899,9 @@
       <c r="B62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -2888,7 +2910,9 @@
       <c r="B63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -2897,7 +2921,9 @@
       <c r="B64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -2906,7 +2932,9 @@
       <c r="B65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -2915,7 +2943,9 @@
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -2924,7 +2954,9 @@
       <c r="B67" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -2933,7 +2965,9 @@
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -2942,7 +2976,9 @@
       <c r="B69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -2951,7 +2987,9 @@
       <c r="B70" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -2960,7 +2998,9 @@
       <c r="B71" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -2969,7 +3009,9 @@
       <c r="B72" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -2978,7 +3020,9 @@
       <c r="B73" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -2987,7 +3031,9 @@
       <c r="B74" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -2996,7 +3042,9 @@
       <c r="B75" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -3005,7 +3053,9 @@
       <c r="B76" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -3014,7 +3064,9 @@
       <c r="B77" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
@@ -3931,7 +3983,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2014</v>
       </c>
@@ -4756,7 +4808,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>279</v>
       </c>
@@ -4767,7 +4819,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2790</v>
       </c>
@@ -4888,7 +4940,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>282</v>
       </c>
@@ -6010,7 +6062,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>4645</v>
       </c>
@@ -7353,7 +7405,7 @@
       </c>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>6202</v>
       </c>
@@ -7677,7 +7729,7 @@
       </c>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>661</v>
       </c>

--- a/Bases de datos/cod_actividad.xlsx
+++ b/Bases de datos/cod_actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E25538-8013-4DE8-ACBD-6395185A91F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5D6C3-B94A-4607-BC35-71816143E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="619">
   <si>
     <t>Cultivos agrícolas transitorios.</t>
   </si>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8133,7 +8133,9 @@
       <c r="B582" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C582" s="1"/>
+      <c r="C582" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="583" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A583" s="3">

--- a/Bases de datos/cod_actividad.xlsx
+++ b/Bases de datos/cod_actividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5D6C3-B94A-4607-BC35-71816143E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362FAD-0186-4BA2-BDD6-CE42E73F023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="621">
   <si>
     <t>Cultivos agrícolas transitorios.</t>
   </si>
@@ -1881,10 +1881,16 @@
     <t>Comercial</t>
   </si>
   <si>
-    <t>Servicios, Institucional</t>
-  </si>
-  <si>
     <t>Institucional, Servicios</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Agricola</t>
+  </si>
+  <si>
+    <t>Institucional</t>
   </si>
 </sst>
 </file>
@@ -2284,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="C695" sqref="C695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2325,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,7 +7148,9 @@
       <c r="B475" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C475" s="1"/>
+      <c r="C475" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="476" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
@@ -7151,7 +7159,9 @@
       <c r="B476" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C476" s="1"/>
+      <c r="C476" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="477" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
@@ -7937,7 +7947,7 @@
         <v>470</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -8092,7 +8102,7 @@
         <v>478</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -8102,7 +8112,9 @@
       <c r="B579" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C579" s="1"/>
+      <c r="C579" s="1" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
@@ -8588,7 +8600,7 @@
         <v>518</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -8626,7 +8638,7 @@
         <v>522</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9033,7 +9045,7 @@
         <v>558</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9044,7 +9056,7 @@
         <v>559</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">

--- a/Bases de datos/cod_actividad.xlsx
+++ b/Bases de datos/cod_actividad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362FAD-0186-4BA2-BDD6-CE42E73F023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCFFD3-8A39-4988-A008-5713A495358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,12 +966,6 @@
     <t>Comercio al por menor en establecimientos no especializados.</t>
   </si>
   <si>
-    <t>Comercio al por menor en establecimientos no especializados con surtido compuesto principalmente por alimentos, bebidas o tabaco.</t>
-  </si>
-  <si>
-    <t>Comercio al por menor en establecimientos no especializados, con surtido compuesto principalmente por productos diferentes de alimentos (víveres en general), bebidas y tabaco.</t>
-  </si>
-  <si>
     <t>Comercio al por menor de alimentos (víveres en general), bebidas y tabaco, en establecimientos especializados.</t>
   </si>
   <si>
@@ -1891,6 +1885,12 @@
   </si>
   <si>
     <t>Institucional</t>
+  </si>
+  <si>
+    <t>Comercio al por menor en establecimientos no especializados con surtido compuesto principalmente por alimentos, bebidas(alcohólicas y no alcohólicas) o tabaco.</t>
+  </si>
+  <si>
+    <t>Comercio al por menor en establecimientos no especializados, con surtido compuesto principalmente por productos diferentes de alimentos (víveres en general), bebidas(alcohólicas y no alcohólicas) y tabaco.</t>
   </si>
 </sst>
 </file>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="C695" sqref="C695"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2303,13 +2303,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2829,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,7 +2928,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v>57</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3016,7 +3016,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>59</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>57</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>62</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3293,7 +3293,7 @@
         <v>83</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>84</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>85</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>86</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>88</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>89</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>90</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>91</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,7 +3403,7 @@
         <v>92</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>92</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>93</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>95</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>96</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>97</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>100</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>101</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>102</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>103</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>103</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>104</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3568,7 @@
         <v>104</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>105</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>105</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>106</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>107</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>108</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>108</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
         <v>109</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>111</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
         <v>112</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>113</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>113</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>114</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
         <v>114</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>115</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
         <v>115</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,7 +3755,7 @@
         <v>116</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>116</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>117</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>117</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>118</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>119</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>120</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>121</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>122</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>123</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>124</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>125</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>125</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>126</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
         <v>126</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>127</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3931,7 +3931,7 @@
         <v>127</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>128</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -3953,7 +3953,7 @@
         <v>129</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>130</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>132</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -3997,7 +3997,7 @@
         <v>133</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>134</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>135</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4030,7 +4030,7 @@
         <v>136</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
         <v>137</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>138</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>139</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4074,7 +4074,7 @@
         <v>139</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>140</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>141</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>142</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4118,7 +4118,7 @@
         <v>143</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
         <v>144</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>145</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>146</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
         <v>147</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>148</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4184,7 +4184,7 @@
         <v>149</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
         <v>149</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4206,7 +4206,7 @@
         <v>150</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
         <v>151</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>152</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>153</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
         <v>154</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
         <v>155</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>156</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>157</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>158</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>158</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4316,7 +4316,7 @@
         <v>159</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>160</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>161</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,7 +4349,7 @@
         <v>162</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
         <v>163</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>164</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>165</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>166</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>168</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>169</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
         <v>169</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
         <v>170</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>171</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>172</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
         <v>173</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>174</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>175</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4514,7 +4514,7 @@
         <v>175</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
         <v>176</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
         <v>176</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>177</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>177</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>178</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
         <v>178</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4591,7 +4591,7 @@
         <v>179</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4602,7 +4602,7 @@
         <v>180</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,7 +4613,7 @@
         <v>181</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>182</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
         <v>182</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4646,7 +4646,7 @@
         <v>183</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4657,7 +4657,7 @@
         <v>183</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>184</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>185</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
         <v>186</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4701,7 +4701,7 @@
         <v>187</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4712,7 +4712,7 @@
         <v>188</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4723,7 +4723,7 @@
         <v>189</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
         <v>189</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4745,7 +4745,7 @@
         <v>190</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>191</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>192</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
         <v>193</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
         <v>193</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>194</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
         <v>194</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>195</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4833,7 +4833,7 @@
         <v>195</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>196</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
         <v>197</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
         <v>198</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
         <v>199</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>200</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4899,7 +4899,7 @@
         <v>201</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
         <v>202</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
         <v>203</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>204</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4943,7 +4943,7 @@
         <v>205</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
         <v>206</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>207</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>208</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>209</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4998,7 +4998,7 @@
         <v>210</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5009,7 +5009,7 @@
         <v>211</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>212</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>213</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>214</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
         <v>214</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -5064,7 +5064,7 @@
         <v>215</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -5075,7 +5075,7 @@
         <v>215</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5086,7 +5086,7 @@
         <v>216</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5097,7 +5097,7 @@
         <v>216</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5459,7 +5459,7 @@
         <v>244</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>274</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,7 +5823,7 @@
         <v>275</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,7 +5834,7 @@
         <v>276</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>277</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>278</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
         <v>278</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
         <v>279</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5889,7 +5889,7 @@
         <v>280</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
         <v>281</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>282</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
         <v>283</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -5933,7 +5933,7 @@
         <v>284</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>285</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5955,7 +5955,7 @@
         <v>285</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
         <v>286</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5977,7 +5977,7 @@
         <v>287</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>288</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>289</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>290</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>291</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>292</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>293</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,7 +6054,7 @@
         <v>294</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
         <v>295</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>296</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>297</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>298</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>299</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>300</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
         <v>301</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>302</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6153,7 +6153,7 @@
         <v>303</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>304</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6175,7 +6175,7 @@
         <v>305</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -6186,7 +6186,7 @@
         <v>306</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>307</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6208,7 +6208,7 @@
         <v>308</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,7 +6219,7 @@
         <v>309</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,7 +6230,7 @@
         <v>310</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>310</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6252,29 +6252,29 @@
         <v>311</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>4711</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>312</v>
+        <v>619</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>4719</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>313</v>
+        <v>620</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>472</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6293,10 +6293,10 @@
         <v>4721</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6304,10 +6304,10 @@
         <v>4722</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6315,10 +6315,10 @@
         <v>4723</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6326,10 +6326,10 @@
         <v>4724</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6337,10 +6337,10 @@
         <v>4729</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6348,10 +6348,10 @@
         <v>473</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6359,10 +6359,10 @@
         <v>4731</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6370,10 +6370,10 @@
         <v>4732</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6381,10 +6381,10 @@
         <v>474</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -6392,10 +6392,10 @@
         <v>4741</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6403,10 +6403,10 @@
         <v>4742</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6414,10 +6414,10 @@
         <v>475</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6425,10 +6425,10 @@
         <v>4751</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6436,10 +6436,10 @@
         <v>4752</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6447,10 +6447,10 @@
         <v>4753</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6458,10 +6458,10 @@
         <v>4754</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6469,10 +6469,10 @@
         <v>4755</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6480,10 +6480,10 @@
         <v>4759</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6491,10 +6491,10 @@
         <v>476</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6502,10 +6502,10 @@
         <v>4761</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6513,10 +6513,10 @@
         <v>4762</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6524,10 +6524,10 @@
         <v>4769</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6535,10 +6535,10 @@
         <v>477</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6546,10 +6546,10 @@
         <v>4771</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6557,10 +6557,10 @@
         <v>4772</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -6568,10 +6568,10 @@
         <v>4773</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6579,10 +6579,10 @@
         <v>4774</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6590,10 +6590,10 @@
         <v>4775</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6601,10 +6601,10 @@
         <v>478</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6612,10 +6612,10 @@
         <v>4781</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6623,10 +6623,10 @@
         <v>4789</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6634,10 +6634,10 @@
         <v>479</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6645,10 +6645,10 @@
         <v>4791</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6656,10 +6656,10 @@
         <v>4792</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6667,10 +6667,10 @@
         <v>4799</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -6678,7 +6678,7 @@
         <v>491</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C423" s="1"/>
     </row>
@@ -6687,7 +6687,7 @@
         <v>4911</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C424" s="1"/>
     </row>
@@ -6696,7 +6696,7 @@
         <v>4912</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -6705,7 +6705,7 @@
         <v>492</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C426" s="1"/>
     </row>
@@ -6714,7 +6714,7 @@
         <v>4921</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C427" s="1"/>
     </row>
@@ -6723,7 +6723,7 @@
         <v>4922</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C428" s="1"/>
     </row>
@@ -6732,7 +6732,7 @@
         <v>4923</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C429" s="1"/>
     </row>
@@ -6741,7 +6741,7 @@
         <v>493</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C430" s="1"/>
     </row>
@@ -6750,7 +6750,7 @@
         <v>4930</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C431" s="1"/>
     </row>
@@ -6759,7 +6759,7 @@
         <v>501</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C432" s="1"/>
     </row>
@@ -6768,7 +6768,7 @@
         <v>5011</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C433" s="1"/>
     </row>
@@ -6777,7 +6777,7 @@
         <v>5012</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C434" s="1"/>
     </row>
@@ -6786,7 +6786,7 @@
         <v>502</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C435" s="1"/>
     </row>
@@ -6795,7 +6795,7 @@
         <v>5021</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C436" s="1"/>
     </row>
@@ -6804,7 +6804,7 @@
         <v>5022</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C437" s="1"/>
     </row>
@@ -6813,7 +6813,7 @@
         <v>511</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C438" s="1"/>
     </row>
@@ -6822,7 +6822,7 @@
         <v>5111</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C439" s="1"/>
     </row>
@@ -6831,7 +6831,7 @@
         <v>5112</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C440" s="1"/>
     </row>
@@ -6840,7 +6840,7 @@
         <v>512</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C441" s="1"/>
     </row>
@@ -6849,7 +6849,7 @@
         <v>5121</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C442" s="1"/>
     </row>
@@ -6858,7 +6858,7 @@
         <v>5122</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C443" s="1"/>
     </row>
@@ -6867,7 +6867,7 @@
         <v>521</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C444" s="1"/>
     </row>
@@ -6876,7 +6876,7 @@
         <v>5210</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C445" s="1"/>
     </row>
@@ -6885,7 +6885,7 @@
         <v>522</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C446" s="1"/>
     </row>
@@ -6894,7 +6894,7 @@
         <v>5221</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C447" s="1"/>
     </row>
@@ -6903,7 +6903,7 @@
         <v>5222</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C448" s="1"/>
     </row>
@@ -6912,7 +6912,7 @@
         <v>5223</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C449" s="1"/>
     </row>
@@ -6921,7 +6921,7 @@
         <v>5224</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C450" s="1"/>
     </row>
@@ -6930,7 +6930,7 @@
         <v>5229</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C451" s="1"/>
     </row>
@@ -6939,7 +6939,7 @@
         <v>531</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C452" s="1"/>
     </row>
@@ -6948,7 +6948,7 @@
         <v>5310</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C453" s="1"/>
     </row>
@@ -6957,7 +6957,7 @@
         <v>532</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C454" s="1"/>
     </row>
@@ -6966,7 +6966,7 @@
         <v>5320</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C455" s="1"/>
     </row>
@@ -6975,7 +6975,7 @@
         <v>551</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C456" s="1"/>
     </row>
@@ -6984,7 +6984,7 @@
         <v>5511</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C457" s="1"/>
     </row>
@@ -6993,7 +6993,7 @@
         <v>5512</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C458" s="1"/>
     </row>
@@ -7002,7 +7002,7 @@
         <v>5513</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C459" s="1"/>
     </row>
@@ -7011,7 +7011,7 @@
         <v>5514</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C460" s="1"/>
     </row>
@@ -7020,7 +7020,7 @@
         <v>5519</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C461" s="1"/>
     </row>
@@ -7029,7 +7029,7 @@
         <v>5520</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C462" s="1"/>
     </row>
@@ -7038,7 +7038,7 @@
         <v>553</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C463" s="1"/>
     </row>
@@ -7047,7 +7047,7 @@
         <v>5530</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C464" s="1"/>
     </row>
@@ -7056,7 +7056,7 @@
         <v>559</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C465" s="1"/>
     </row>
@@ -7065,7 +7065,7 @@
         <v>5590</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C466" s="1"/>
     </row>
@@ -7074,7 +7074,7 @@
         <v>561</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C467" s="1"/>
     </row>
@@ -7083,7 +7083,7 @@
         <v>5611</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C468" s="1"/>
     </row>
@@ -7092,7 +7092,7 @@
         <v>5612</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C469" s="1"/>
     </row>
@@ -7101,7 +7101,7 @@
         <v>5613</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C470" s="1"/>
     </row>
@@ -7110,7 +7110,7 @@
         <v>5619</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C471" s="1"/>
     </row>
@@ -7119,7 +7119,7 @@
         <v>562</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C472" s="1"/>
     </row>
@@ -7128,7 +7128,7 @@
         <v>5621</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C473" s="1"/>
     </row>
@@ -7137,7 +7137,7 @@
         <v>5629</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C474" s="1"/>
     </row>
@@ -7146,10 +7146,10 @@
         <v>563</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -7157,10 +7157,10 @@
         <v>5630</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>581</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C477" s="1"/>
     </row>
@@ -7177,7 +7177,7 @@
         <v>5811</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C478" s="1"/>
     </row>
@@ -7186,7 +7186,7 @@
         <v>5812</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C479" s="1"/>
     </row>
@@ -7195,7 +7195,7 @@
         <v>5813</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C480" s="1"/>
     </row>
@@ -7204,7 +7204,7 @@
         <v>5819</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C481" s="1"/>
     </row>
@@ -7213,7 +7213,7 @@
         <v>582</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C482" s="1"/>
     </row>
@@ -7222,7 +7222,7 @@
         <v>5820</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C483" s="1"/>
     </row>
@@ -7231,7 +7231,7 @@
         <v>591</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C484" s="1"/>
     </row>
@@ -7240,7 +7240,7 @@
         <v>5911</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C485" s="1"/>
     </row>
@@ -7249,7 +7249,7 @@
         <v>5912</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C486" s="1"/>
     </row>
@@ -7258,7 +7258,7 @@
         <v>5913</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C487" s="1"/>
     </row>
@@ -7267,7 +7267,7 @@
         <v>5914</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C488" s="1"/>
     </row>
@@ -7276,7 +7276,7 @@
         <v>592</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C489" s="1"/>
     </row>
@@ -7285,7 +7285,7 @@
         <v>5920</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C490" s="1"/>
     </row>
@@ -7294,7 +7294,7 @@
         <v>601</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C491" s="1"/>
     </row>
@@ -7303,7 +7303,7 @@
         <v>6010</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C492" s="1"/>
     </row>
@@ -7312,7 +7312,7 @@
         <v>602</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C493" s="1"/>
     </row>
@@ -7321,7 +7321,7 @@
         <v>6020</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C494" s="1"/>
     </row>
@@ -7330,7 +7330,7 @@
         <v>611</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C495" s="1"/>
     </row>
@@ -7339,7 +7339,7 @@
         <v>6110</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C496" s="1"/>
     </row>
@@ -7348,7 +7348,7 @@
         <v>612</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C497" s="1"/>
     </row>
@@ -7357,7 +7357,7 @@
         <v>6120</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C498" s="1"/>
     </row>
@@ -7366,7 +7366,7 @@
         <v>613</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C499" s="1"/>
     </row>
@@ -7375,7 +7375,7 @@
         <v>6130</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C500" s="1"/>
     </row>
@@ -7384,7 +7384,7 @@
         <v>619</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C501" s="1"/>
     </row>
@@ -7393,7 +7393,7 @@
         <v>6190</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C502" s="1"/>
     </row>
@@ -7402,7 +7402,7 @@
         <v>620</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C503" s="1"/>
     </row>
@@ -7411,7 +7411,7 @@
         <v>6201</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C504" s="1"/>
     </row>
@@ -7420,7 +7420,7 @@
         <v>6202</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C505" s="1"/>
     </row>
@@ -7429,7 +7429,7 @@
         <v>6209</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C506" s="1"/>
     </row>
@@ -7438,7 +7438,7 @@
         <v>6311</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C507" s="1"/>
     </row>
@@ -7447,7 +7447,7 @@
         <v>6312</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C508" s="1"/>
     </row>
@@ -7456,7 +7456,7 @@
         <v>639</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C509" s="1"/>
     </row>
@@ -7465,7 +7465,7 @@
         <v>6391</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C510" s="1"/>
     </row>
@@ -7474,7 +7474,7 @@
         <v>6399</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C511" s="1"/>
     </row>
@@ -7483,7 +7483,7 @@
         <v>641</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C512" s="1"/>
     </row>
@@ -7492,7 +7492,7 @@
         <v>6411</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C513" s="1"/>
     </row>
@@ -7501,7 +7501,7 @@
         <v>6412</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C514" s="1"/>
     </row>
@@ -7510,7 +7510,7 @@
         <v>642</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C515" s="1"/>
     </row>
@@ -7519,7 +7519,7 @@
         <v>6421</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C516" s="1"/>
     </row>
@@ -7528,7 +7528,7 @@
         <v>6422</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C517" s="1"/>
     </row>
@@ -7537,7 +7537,7 @@
         <v>6423</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C518" s="1"/>
     </row>
@@ -7546,7 +7546,7 @@
         <v>6424</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C519" s="1"/>
     </row>
@@ -7555,7 +7555,7 @@
         <v>643</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C520" s="1"/>
     </row>
@@ -7564,7 +7564,7 @@
         <v>6431</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C521" s="1"/>
     </row>
@@ -7573,7 +7573,7 @@
         <v>6432</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C522" s="1"/>
     </row>
@@ -7582,7 +7582,7 @@
         <v>649</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C523" s="1"/>
     </row>
@@ -7591,7 +7591,7 @@
         <v>6491</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C524" s="1"/>
     </row>
@@ -7600,7 +7600,7 @@
         <v>6492</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C525" s="1"/>
     </row>
@@ -7609,7 +7609,7 @@
         <v>6493</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C526" s="1"/>
     </row>
@@ -7618,7 +7618,7 @@
         <v>6494</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C527" s="1"/>
     </row>
@@ -7627,7 +7627,7 @@
         <v>6495</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C528" s="1"/>
     </row>
@@ -7636,7 +7636,7 @@
         <v>6499</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C529" s="1"/>
     </row>
@@ -7645,7 +7645,7 @@
         <v>651</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C530" s="1"/>
     </row>
@@ -7654,7 +7654,7 @@
         <v>6511</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C531" s="1"/>
     </row>
@@ -7663,7 +7663,7 @@
         <v>6512</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C532" s="1"/>
     </row>
@@ -7672,7 +7672,7 @@
         <v>6513</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C533" s="1"/>
     </row>
@@ -7681,7 +7681,7 @@
         <v>6514</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C534" s="1"/>
     </row>
@@ -7690,7 +7690,7 @@
         <v>652</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C535" s="1"/>
     </row>
@@ -7699,7 +7699,7 @@
         <v>6521</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C536" s="1"/>
     </row>
@@ -7708,7 +7708,7 @@
         <v>6522</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C537" s="1"/>
     </row>
@@ -7717,7 +7717,7 @@
         <v>653</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C538" s="1"/>
     </row>
@@ -7726,7 +7726,7 @@
         <v>6531</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C539" s="1"/>
     </row>
@@ -7735,7 +7735,7 @@
         <v>6532</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C540" s="1"/>
     </row>
@@ -7744,7 +7744,7 @@
         <v>661</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C541" s="1"/>
     </row>
@@ -7753,7 +7753,7 @@
         <v>6611</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C542" s="1"/>
     </row>
@@ -7762,7 +7762,7 @@
         <v>6612</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C543" s="1"/>
     </row>
@@ -7771,7 +7771,7 @@
         <v>6613</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C544" s="1"/>
     </row>
@@ -7780,7 +7780,7 @@
         <v>6614</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C545" s="1"/>
     </row>
@@ -7789,7 +7789,7 @@
         <v>6615</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C546" s="1"/>
     </row>
@@ -7798,7 +7798,7 @@
         <v>6619</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C547" s="1"/>
     </row>
@@ -7807,7 +7807,7 @@
         <v>662</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C548" s="1"/>
     </row>
@@ -7816,7 +7816,7 @@
         <v>6621</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C549" s="1"/>
     </row>
@@ -7825,7 +7825,7 @@
         <v>6629</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C550" s="1"/>
     </row>
@@ -7834,7 +7834,7 @@
         <v>663</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C551" s="1"/>
     </row>
@@ -7843,7 +7843,7 @@
         <v>6630</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C552" s="1"/>
     </row>
@@ -7852,7 +7852,7 @@
         <v>681</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C553" s="1"/>
     </row>
@@ -7861,7 +7861,7 @@
         <v>6810</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C554" s="1"/>
     </row>
@@ -7870,7 +7870,7 @@
         <v>682</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C555" s="1"/>
     </row>
@@ -7879,7 +7879,7 @@
         <v>6820</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C556" s="1"/>
     </row>
@@ -7888,7 +7888,7 @@
         <v>691</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C557" s="1"/>
     </row>
@@ -7897,7 +7897,7 @@
         <v>6910</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C558" s="1"/>
     </row>
@@ -7906,7 +7906,7 @@
         <v>692</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C559" s="1"/>
     </row>
@@ -7915,7 +7915,7 @@
         <v>6920</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C560" s="1"/>
     </row>
@@ -7924,7 +7924,7 @@
         <v>711</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C561" s="1"/>
     </row>
@@ -7933,10 +7933,10 @@
         <v>7110</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -7944,10 +7944,10 @@
         <v>712</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -7955,7 +7955,7 @@
         <v>7120</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C564" s="1"/>
     </row>
@@ -7964,7 +7964,7 @@
         <v>721</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C565" s="1"/>
     </row>
@@ -7973,7 +7973,7 @@
         <v>7210</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C566" s="1"/>
     </row>
@@ -7982,7 +7982,7 @@
         <v>722</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C567" s="1"/>
     </row>
@@ -7991,7 +7991,7 @@
         <v>7220</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C568" s="1"/>
     </row>
@@ -8000,10 +8000,10 @@
         <v>731</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,10 +8011,10 @@
         <v>7310</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8022,10 +8022,10 @@
         <v>732</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8033,10 +8033,10 @@
         <v>7320</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,10 +8044,10 @@
         <v>741</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -8055,10 +8055,10 @@
         <v>7410</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +8066,10 @@
         <v>742</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,10 +8077,10 @@
         <v>7420</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8088,10 +8088,10 @@
         <v>749</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8099,10 +8099,10 @@
         <v>7490</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -8110,10 +8110,10 @@
         <v>750</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,10 +8121,10 @@
         <v>7500</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -8132,10 +8132,10 @@
         <v>771</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,10 +8143,10 @@
         <v>7710</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8154,7 +8154,7 @@
         <v>772</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C583" s="1"/>
     </row>
@@ -8163,7 +8163,7 @@
         <v>7721</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C584" s="1"/>
     </row>
@@ -8172,7 +8172,7 @@
         <v>7722</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C585" s="1"/>
     </row>
@@ -8181,7 +8181,7 @@
         <v>7729</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C586" s="1"/>
     </row>
@@ -8190,7 +8190,7 @@
         <v>773</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C587" s="1"/>
     </row>
@@ -8199,7 +8199,7 @@
         <v>7730</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C588" s="1"/>
     </row>
@@ -8208,7 +8208,7 @@
         <v>774</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C589" s="1"/>
     </row>
@@ -8217,7 +8217,7 @@
         <v>7740</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C590" s="1"/>
     </row>
@@ -8226,7 +8226,7 @@
         <v>781</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C591" s="1"/>
     </row>
@@ -8235,7 +8235,7 @@
         <v>7810</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C592" s="1"/>
     </row>
@@ -8244,7 +8244,7 @@
         <v>782</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C593" s="1"/>
     </row>
@@ -8253,7 +8253,7 @@
         <v>7820</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C594" s="1"/>
     </row>
@@ -8262,7 +8262,7 @@
         <v>783</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C595" s="1"/>
     </row>
@@ -8271,10 +8271,10 @@
         <v>7830</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>791</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C597" s="1"/>
     </row>
@@ -8291,7 +8291,7 @@
         <v>7911</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C598" s="1"/>
     </row>
@@ -8300,7 +8300,7 @@
         <v>7912</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C599" s="1"/>
     </row>
@@ -8309,7 +8309,7 @@
         <v>799</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C600" s="1"/>
     </row>
@@ -8318,7 +8318,7 @@
         <v>7990</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C601" s="1"/>
     </row>
@@ -8327,7 +8327,7 @@
         <v>801</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C602" s="1"/>
     </row>
@@ -8336,7 +8336,7 @@
         <v>8010</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C603" s="1"/>
     </row>
@@ -8345,7 +8345,7 @@
         <v>802</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C604" s="1"/>
     </row>
@@ -8354,7 +8354,7 @@
         <v>8020</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C605" s="1"/>
     </row>
@@ -8363,7 +8363,7 @@
         <v>803</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C606" s="1"/>
     </row>
@@ -8372,7 +8372,7 @@
         <v>8030</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C607" s="1"/>
     </row>
@@ -8381,7 +8381,7 @@
         <v>811</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C608" s="1"/>
     </row>
@@ -8390,7 +8390,7 @@
         <v>8110</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C609" s="1"/>
     </row>
@@ -8399,7 +8399,7 @@
         <v>812</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C610" s="1"/>
     </row>
@@ -8408,7 +8408,7 @@
         <v>8121</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C611" s="1"/>
     </row>
@@ -8417,7 +8417,7 @@
         <v>8129</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C612" s="1"/>
     </row>
@@ -8426,7 +8426,7 @@
         <v>813</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C613" s="1"/>
     </row>
@@ -8435,7 +8435,7 @@
         <v>8130</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C614" s="1"/>
     </row>
@@ -8444,7 +8444,7 @@
         <v>821</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C615" s="1"/>
     </row>
@@ -8453,7 +8453,7 @@
         <v>8211</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C616" s="1"/>
     </row>
@@ -8462,7 +8462,7 @@
         <v>8219</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C617" s="1"/>
     </row>
@@ -8471,7 +8471,7 @@
         <v>822</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C618" s="1"/>
     </row>
@@ -8480,7 +8480,7 @@
         <v>8220</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C619" s="1"/>
     </row>
@@ -8489,7 +8489,7 @@
         <v>823</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C620" s="1"/>
     </row>
@@ -8498,7 +8498,7 @@
         <v>8230</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C621" s="1"/>
     </row>
@@ -8507,7 +8507,7 @@
         <v>829</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C622" s="1"/>
     </row>
@@ -8516,7 +8516,7 @@
         <v>8291</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C623" s="1"/>
     </row>
@@ -8525,7 +8525,7 @@
         <v>8292</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C624" s="1"/>
     </row>
@@ -8534,7 +8534,7 @@
         <v>8299</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C625" s="1"/>
     </row>
@@ -8543,7 +8543,7 @@
         <v>841</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C626" s="1"/>
     </row>
@@ -8552,7 +8552,7 @@
         <v>8411</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C627" s="1"/>
     </row>
@@ -8561,7 +8561,7 @@
         <v>8412</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C628" s="1"/>
     </row>
@@ -8570,7 +8570,7 @@
         <v>8413</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C629" s="1"/>
     </row>
@@ -8579,7 +8579,7 @@
         <v>8414</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C630" s="1"/>
     </row>
@@ -8588,7 +8588,7 @@
         <v>8415</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C631" s="1"/>
     </row>
@@ -8597,10 +8597,10 @@
         <v>842</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>8421</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C633" s="1"/>
     </row>
@@ -8617,7 +8617,7 @@
         <v>8422</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C634" s="1"/>
     </row>
@@ -8626,7 +8626,7 @@
         <v>8423</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C635" s="1"/>
     </row>
@@ -8635,10 +8635,10 @@
         <v>8424</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -8646,7 +8646,7 @@
         <v>843</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C637" s="1"/>
     </row>
@@ -8655,7 +8655,7 @@
         <v>8430</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C638" s="1"/>
     </row>
@@ -8664,7 +8664,7 @@
         <v>851</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C639" s="1"/>
     </row>
@@ -8673,7 +8673,7 @@
         <v>8511</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C640" s="1"/>
     </row>
@@ -8682,7 +8682,7 @@
         <v>8512</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C641" s="1"/>
     </row>
@@ -8691,7 +8691,7 @@
         <v>8513</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C642" s="1"/>
     </row>
@@ -8700,7 +8700,7 @@
         <v>852</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C643" s="1"/>
     </row>
@@ -8709,7 +8709,7 @@
         <v>8521</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C644" s="1"/>
     </row>
@@ -8718,7 +8718,7 @@
         <v>8522</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C645" s="1"/>
     </row>
@@ -8727,7 +8727,7 @@
         <v>8523</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C646" s="1"/>
     </row>
@@ -8736,7 +8736,7 @@
         <v>853</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C647" s="1"/>
     </row>
@@ -8745,7 +8745,7 @@
         <v>8530</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C648" s="1"/>
     </row>
@@ -8754,7 +8754,7 @@
         <v>854</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C649" s="1"/>
     </row>
@@ -8763,7 +8763,7 @@
         <v>8541</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C650" s="1"/>
     </row>
@@ -8772,7 +8772,7 @@
         <v>8542</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C651" s="1"/>
     </row>
@@ -8781,7 +8781,7 @@
         <v>8543</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C652" s="1"/>
     </row>
@@ -8790,7 +8790,7 @@
         <v>8544</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C653" s="1"/>
     </row>
@@ -8799,7 +8799,7 @@
         <v>855</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C654" s="1"/>
     </row>
@@ -8808,7 +8808,7 @@
         <v>8551</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C655" s="1"/>
     </row>
@@ -8817,7 +8817,7 @@
         <v>8552</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C656" s="1"/>
     </row>
@@ -8826,7 +8826,7 @@
         <v>8553</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C657" s="1"/>
     </row>
@@ -8835,7 +8835,7 @@
         <v>8559</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C658" s="1"/>
     </row>
@@ -8844,7 +8844,7 @@
         <v>856</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C659" s="1"/>
     </row>
@@ -8853,7 +8853,7 @@
         <v>8560</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C660" s="1"/>
     </row>
@@ -8862,7 +8862,7 @@
         <v>861</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C661" s="1"/>
     </row>
@@ -8871,7 +8871,7 @@
         <v>8610</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C662" s="1"/>
     </row>
@@ -8880,7 +8880,7 @@
         <v>862</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C663" s="1"/>
     </row>
@@ -8889,7 +8889,7 @@
         <v>8621</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C664" s="1"/>
     </row>
@@ -8898,7 +8898,7 @@
         <v>8622</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C665" s="1"/>
     </row>
@@ -8907,7 +8907,7 @@
         <v>869</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C666" s="1"/>
     </row>
@@ -8916,7 +8916,7 @@
         <v>8691</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C667" s="1"/>
     </row>
@@ -8925,7 +8925,7 @@
         <v>8692</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C668" s="1"/>
     </row>
@@ -8934,7 +8934,7 @@
         <v>8699</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C669" s="1"/>
     </row>
@@ -8943,7 +8943,7 @@
         <v>871</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C670" s="1"/>
     </row>
@@ -8952,7 +8952,7 @@
         <v>8710</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C671" s="1"/>
     </row>
@@ -8961,7 +8961,7 @@
         <v>872</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C672" s="1"/>
     </row>
@@ -8970,7 +8970,7 @@
         <v>8720</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C673" s="1"/>
     </row>
@@ -8979,7 +8979,7 @@
         <v>873</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C674" s="1"/>
     </row>
@@ -8988,7 +8988,7 @@
         <v>8730</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C675" s="1"/>
     </row>
@@ -8997,7 +8997,7 @@
         <v>879</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C676" s="1"/>
     </row>
@@ -9006,7 +9006,7 @@
         <v>8790</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C677" s="1"/>
     </row>
@@ -9015,7 +9015,7 @@
         <v>881</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C678" s="1"/>
     </row>
@@ -9024,7 +9024,7 @@
         <v>8810</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C679" s="1"/>
     </row>
@@ -9033,7 +9033,7 @@
         <v>889</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C680" s="1"/>
     </row>
@@ -9042,10 +9042,10 @@
         <v>8890</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9053,10 +9053,10 @@
         <v>900</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -9064,7 +9064,7 @@
         <v>9001</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C683" s="1"/>
     </row>
@@ -9073,7 +9073,7 @@
         <v>9002</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C684" s="1"/>
     </row>
@@ -9082,7 +9082,7 @@
         <v>9003</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C685" s="1"/>
     </row>
@@ -9091,7 +9091,7 @@
         <v>9004</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C686" s="1"/>
     </row>
@@ -9100,7 +9100,7 @@
         <v>9005</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C687" s="1"/>
     </row>
@@ -9109,7 +9109,7 @@
         <v>9006</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C688" s="1"/>
     </row>
@@ -9118,7 +9118,7 @@
         <v>9007</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C689" s="1"/>
     </row>
@@ -9127,7 +9127,7 @@
         <v>9008</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C690" s="1"/>
     </row>
@@ -9136,7 +9136,7 @@
         <v>910</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C691" s="1"/>
     </row>
@@ -9145,7 +9145,7 @@
         <v>9101</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C692" s="1"/>
     </row>
@@ -9154,7 +9154,7 @@
         <v>9102</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C693" s="1"/>
     </row>
@@ -9163,10 +9163,10 @@
         <v>9103</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -9174,10 +9174,10 @@
         <v>920</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
         <v>9200</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C696" s="1"/>
     </row>
@@ -9194,7 +9194,7 @@
         <v>931</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C697" s="1"/>
     </row>
@@ -9203,7 +9203,7 @@
         <v>9311</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C698" s="1"/>
     </row>
@@ -9212,7 +9212,7 @@
         <v>9312</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C699" s="1"/>
     </row>
@@ -9221,7 +9221,7 @@
         <v>9319</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C700" s="1"/>
     </row>
@@ -9230,7 +9230,7 @@
         <v>932</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C701" s="1"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>9321</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C702" s="1"/>
     </row>
@@ -9248,7 +9248,7 @@
         <v>9329</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C703" s="1"/>
     </row>
@@ -9257,7 +9257,7 @@
         <v>941</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C704" s="1"/>
     </row>
@@ -9266,7 +9266,7 @@
         <v>9411</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C705" s="1"/>
     </row>
@@ -9275,7 +9275,7 @@
         <v>9412</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C706" s="1"/>
     </row>
@@ -9284,7 +9284,7 @@
         <v>942</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C707" s="1"/>
     </row>
@@ -9293,7 +9293,7 @@
         <v>9420</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C708" s="1"/>
     </row>
@@ -9302,7 +9302,7 @@
         <v>949</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C709" s="1"/>
     </row>
@@ -9311,7 +9311,7 @@
         <v>9491</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C710" s="1"/>
     </row>
@@ -9320,7 +9320,7 @@
         <v>9492</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C711" s="1"/>
     </row>
@@ -9329,7 +9329,7 @@
         <v>9499</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C712" s="1"/>
     </row>
@@ -9338,7 +9338,7 @@
         <v>951</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C713" s="1"/>
     </row>
@@ -9347,7 +9347,7 @@
         <v>9511</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C714" s="1"/>
     </row>
@@ -9356,7 +9356,7 @@
         <v>9512</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C715" s="1"/>
     </row>
@@ -9365,7 +9365,7 @@
         <v>9521</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C716" s="1"/>
     </row>
@@ -9374,7 +9374,7 @@
         <v>9522</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C717" s="1"/>
     </row>
@@ -9383,7 +9383,7 @@
         <v>9523</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C718" s="1"/>
     </row>
@@ -9392,7 +9392,7 @@
         <v>9524</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C719" s="1"/>
     </row>
@@ -9401,7 +9401,7 @@
         <v>9529</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C720" s="1"/>
     </row>
@@ -9410,7 +9410,7 @@
         <v>960</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C721" s="1"/>
     </row>
@@ -9419,7 +9419,7 @@
         <v>9601</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C722" s="1"/>
     </row>
@@ -9428,7 +9428,7 @@
         <v>9602</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C723" s="1"/>
     </row>
@@ -9437,7 +9437,7 @@
         <v>9603</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C724" s="1"/>
     </row>
@@ -9446,10 +9446,10 @@
         <v>9609</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="726" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -9457,7 +9457,7 @@
         <v>970</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C726" s="1"/>
     </row>
@@ -9466,7 +9466,7 @@
         <v>9700</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C727" s="1"/>
     </row>
@@ -9475,7 +9475,7 @@
         <v>981</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C728" s="1"/>
     </row>
@@ -9484,7 +9484,7 @@
         <v>9810</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C729" s="1"/>
     </row>
@@ -9493,7 +9493,7 @@
         <v>982</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C730" s="1"/>
     </row>
@@ -9502,7 +9502,7 @@
         <v>9820</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C731" s="1"/>
     </row>
@@ -9511,7 +9511,7 @@
         <v>10</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C732" s="1"/>
     </row>
@@ -9520,7 +9520,7 @@
         <v>20</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C733" s="1"/>
     </row>
@@ -9529,7 +9529,7 @@
         <v>81</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C734" s="1"/>
     </row>
@@ -9538,7 +9538,7 @@
         <v>82</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C735" s="1"/>
     </row>
@@ -9547,7 +9547,7 @@
         <v>90</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C736" s="1"/>
     </row>
